--- a/biology/Zoologie/Dunnart_à_joues_rouges/Dunnart_à_joues_rouges.xlsx
+++ b/biology/Zoologie/Dunnart_à_joues_rouges/Dunnart_à_joues_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_joues_rouges</t>
+          <t>Dunnart_à_joues_rouges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sminthopsis virginiae
 Le Dunnart à joues rouges (Sminthopsis virginiae) est une espèce de souris marsupiales de la famille des Dasyuridae. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_joues_rouges</t>
+          <t>Dunnart_à_joues_rouges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sminthopsis virginiae se rencontre en Australie, en Indonésie et en Papouasie-Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sminthopsis virginiae se rencontre en Australie, en Indonésie et en Papouasie-Nouvelle-Guinée.
 La sous-espèce nominale S. c. virginiae vit dans le Queensland sur la côte nord-est, de Mackay jusqu'à l'extrémité de la péninsule du cap York. La sous-espèce S. c. nitela vit dans l'est du Kimberley jusqu'au nord du Territoire du Nord. La sous-espèce S. c. rufigenis vit en Nouvelle-Guinée.
 Son habitat comprend les bois, les savanes, les prairies, les marécages, les points d'eau et les lisières des forêts tropicales.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_joues_rouges</t>
+          <t>Dunnart_à_joues_rouges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sminthopsis virginiae a une longueur totale de 167 à 270 mm, dont 80 à 135 mm pour la tête et le corps et 87 à 135 mm pour la queue. La longueur de l'oreille va de 12 à 13 mm et son poids va de 18 à 75 g.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_joues_rouges</t>
+          <t>Dunnart_à_joues_rouges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Organisation sociale et reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son comportement, comme celui de la plupart des espèces de dunnarts, n'est pas bien connu. Ils se reproduisent d'octobre à mars. Les jeunes sont en gestation pendant 15 jours et sevrés à 65-70 jours. Ils atteignent leur maturité au bout de 4 à 6 mois. Il peut y avoir de nombreuses portées sur une même année.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_joues_rouges</t>
+          <t>Dunnart_à_joues_rouges</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire typique comprend principalement de petits reptiles.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_joues_rouges</t>
+          <t>Dunnart_à_joues_rouges</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,9 +658,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 mai 2024)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 mai 2024) :
 Sminthopsis virginiae nitela Collett, 1897
 Sminthopsis virginiae rufigenis Thomas, 1922
 Sminthopsis virginiae virginiae (de Tarragon, 1847)</t>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dunnart_%C3%A0_joues_rouges</t>
+          <t>Dunnart_à_joues_rouges</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,15 +693,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Sminthopsis virginiae (de Tarragon, 1847)[2]. 
-L'espèce a été initialement classée dans le genre Phascogale sous le protonyme Phascogale virginiae Tarragon, 1847[2],[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Dunnart à joues rouges[2], Souris marsupiale à joues rouges[2],[1].
-Sminthopsis virginiae a pour synonyme[2] :
-Phascogale virginiae Tarragon, 1847
-Publication originale
-de Tarragon, « Description du mâle adulte du Colobe guereza et du Phascogale virginiae », Revue zoologique, Paris, Bureau de la revue zoologique, vol. 1847,‎ juin 1847, p. 177-178 (ISSN 1259-6493 et 2419-4816, lire en ligne)</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Sminthopsis virginiae (de Tarragon, 1847). 
+L'espèce a été initialement classée dans le genre Phascogale sous le protonyme Phascogale virginiae Tarragon, 1847,.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Dunnart à joues rouges, Souris marsupiale à joues rouges,.
+Sminthopsis virginiae a pour synonyme :
+Phascogale virginiae Tarragon, 1847</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dunnart_à_joues_rouges</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dunnart_%C3%A0_joues_rouges</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>de Tarragon, « Description du mâle adulte du Colobe guereza et du Phascogale virginiae », Revue zoologique, Paris, Bureau de la revue zoologique, vol. 1847,‎ juin 1847, p. 177-178 (ISSN 1259-6493 et 2419-4816, lire en ligne)</t>
         </is>
       </c>
     </row>
